--- a/中国外交.xlsx
+++ b/中国外交.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="310">
   <si>
     <t>国家主席习近平6日在人民大会堂会见老挝总理通伦。习近平请通伦转达对本扬总书记、国家主席的新年祝福。习近平指出，中老是好邻居、好朋友、好同志、好伙伴，更是命运共同体。共产党领导和社会主义制度是我们的政治本色，双方要同舟共济、携手并肩，保持密切高层交往传统，加强治国理政交流，共同提高执政水平和治理能力，维护各自政治安全，维护两国及广大发展中国家共同利益。中方将继续坚定支持老方维护国家主权独立和尊严。习近平强调，明年是中老建交60周年，两国关系进入承前启后的关键阶段。我们愿同老方一道，推动中老命运共同体建设，推进发展战略对接，加快中老经济走廊建设，扎实推进铁路、经济园区等大项目合作，促进人文交流，加强在国际和地区事务中的协调和配合，推动中老全面战略合作伙伴关系再上新台阶。通伦转达本扬总书记、国家主席对习近平主席的诚挚问候，再次祝贺中华人民共和国成立70年以来取得的伟大历史性成就，表示相信在以习近平同志为核心的中国共产党坚强领导下，中国人民一定会如期全面建成小康社会，实现第一个百年奋斗目标。通伦祝贺中共十九届四中全会顺利召开，表示中国坚持和完善中国特色社会主义、推进国家治理体系和治理能力现代化，值得老挝学习和借鉴，鼓舞老挝坚定沿着社会主义道路走下去。习近平主席和本扬总书记达成的老中命运共同体行动计划为老中关系规划了未来，指明了方向，老方正在认真逐项落实。老方将积极推动老中铁路等共建“一带一路”重要项目如期竣工，为老经济发展和民生改善发挥重要作用。杨洁篪、王毅、何立峰等参加会见。</t>
   </si>
@@ -971,6 +971,114 @@
   </si>
   <si>
     <t>塞尔维亚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月22日，中国共产党中央委员会致电老挝人民革命党中央委员会，祝贺老挝人民革命党成立65周年。贺电说：65年来，老挝人民革命党团结带领老挝人民，成功实现民族解放和国家统一，取得社会主义建设和革新事业的辉煌成就。相信在以本扬总书记为首的老挝人民革命党中央坚强领导下，老挝党和人民将不断巩固和完善党的领导，稳步推进社会主义建设和革新事业，以优异成绩迎接老挝党十一大胜利召开。中国共产党高度重视发展中老关系。2019年4月，习近平总书记同本扬总书记共同签署《构建中老命运共同体行动计划》，为新时代中老关系发展指明了方向、规划了路径。近期新冠肺炎疫情发生以来，老挝党、政府、社会各界第一时间向中方表示慰问，并提供援款和物资帮助，生动诠释了守望相助、同舟共济的中老命运共同体精神。中国共产党愿同老挝人民革命党一道，落实好两党总书记达成的重要共识，加强战略沟通，增进政治互信，深化治党治国经验交流，拓展各领域务实合作，推进中老命运共同体建设，推动两国社会主义事业实现新发展，为人类进步事业作出新贡献。</t>
+  </si>
+  <si>
+    <t>中共中央致电祝贺老挝人民革命党成立65周年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家主席习近平23日晚同法国总统马克龙通电话。习近平强调，今年1月以来，在抗击新冠肺炎疫情的关键时期，我同总统先生3次通话，充分体现出我们之间的高度互信以及中法关系的高水平。两国发扬彼此同情支持的友好传统，相互援助医疗防疫物资，为各国人民守望相助、共克时艰树立了榜样。我密切关注当前欧洲和法国疫情发展。法方正在采取一系列积极有效防控措施，我向法国政府和人民致以诚挚慰问并表示坚定支持。中方愿继续向法方提供力所能及的支持和帮助。习近平应询介绍了中方疫情防控的形势，强调中法共同肩负着维护国际和地区公共卫生安全的艰巨责任，双方应精诚合作，推进联合研究项目，加强国境卫生检疫合作，支持世卫组织工作，共同帮助非洲国家做好疫情防控，努力打造卫生健康共同体。中方愿同法方一道，推动有关各方加强在联合国、二十国集团等框架下协调合作，开展联防联控，完善全球卫生治理，帮助发展中国家和其他有需要的国家加强能力建设，抵御疫情给世界经济带来的冲击，让合作的阳光驱散疫情的阴霾。马克龙介绍了当前法国国内疫情形势及采取的有关措施。马克龙表示，中国政府和中国人民以巨大的勇气和果断的措施，在短时间内有效控制住疫情，我对此表示高度赞赏。法方由衷感谢中方提供的宝贵支持和帮助。法方愿同中方开展双边卫生合作，并共同推动各方在二十国集团、世卫组织等多边框架内加强合作，携手战胜疫情，应对疫情给世界经济带来的冲击。两国元首同意保持密切沟通，推动双边各领域交往合作，确保中法关系继续在高水平上向前发展，维护中法、中欧产业链、供应链稳定。</t>
+  </si>
+  <si>
+    <t>国家主席习近平23日晚同英国首相约翰逊通电话。习近平代表中国政府和中国人民对英国政府和英国人民抗击新冠肺炎疫情表示诚挚慰问。习近平应询介绍了中方防控新冠肺炎疫情的举措，强调希望英方同中方加强配合，在保障必要人员流动和贸易通畅的同时，将疫情扩散风险降至最低。中方愿向英方提供支持和帮助。相信在首相先生领导下，英国人民一定能够战胜疫情。习近平强调，中国政府高度重视保护海外中国公民身体健康和生命安全。希望英方采取切实有效措施，维护好在英中国公民特别是留学生的健康安全和正当权益。习近平指出，病毒不分国界、不分种族，全人类只有共同努力，才能战而胜之。各国要在联合国和二十国集团框架内推进合作，加强信息和经验交流共享，加强科研攻关合作，支持世卫组织发挥应有作用，推动完善全球卫生治理，加强宏观经济政策协调，稳市场，保增长，保民生，确保全球供应链开放、稳定、安全。相信战胜疫情后，中英相互理解会更深入，共识会更广泛，两国合作也将迎来更加广阔的前景。约翰逊表示，中国政府和中国人民经过艰苦努力和巨大付出，防控疫情取得了不起的成就，我对此表示祝贺。当前，英国疫情形势严峻，英方正在研究借鉴中方有益经验，采取科学有效防控措施。英方感谢中方提供的宝贵支持和帮助，将尽力照顾好在英中国公民特别是留学生的健康和安全。我完全赞同习近平主席的看法，疫情面前，任何国家都不能独善其身，各国应加强合作。英方支持世卫组织发挥重要作用，希望各方在二十国集团等多边框架内深化有关合作。中英两国今年将分别举办《生物多样性公约》第十五次缔约方大会和《联合国气候变化框架公约》第二十六次缔约方大会，双方要以此为契机，推动国际社会加强卫生防疫合作。我期待同习近平主席保持密切交往，疫情过后早日访华，共同推动英中关系发展。</t>
+  </si>
+  <si>
+    <t>国家主席习近平23日晚同埃及总统塞西通电话。习近平指出，这段时间，疫情在全球多国多点暴发。事实再次表明，人类是休戚与共的命运共同体。各国必须团结合作，共同应对。中国将同各国一道，基于人类命运共同体理念，加强国际防疫合作，携手应对共同威胁和挑战，维护全球公共卫生安全。疫情发生后，埃方对中国抗击疫情表达了支持，体现了中埃风雨同舟的深厚友谊和两国全面战略伙伴关系的高水平。埃及当前也面临抗击疫情的紧迫任务，中方愿同埃方及时分享疫情信息、防控救治经验、医疗研究成果，提供医疗物资，支持埃方疫情防控工作，共同抗击疫情。相信这次携手抗击疫情，将加深中埃两国传统友谊。中方高度重视发展中埃关系，愿同埃方携手努力，深化各领域务实合作，把中埃关系打造成构建中阿和中非命运共同体的先行先试样板。塞西表示，中国抗击疫情取得了积极进展，这再次证明主席先生的英明领导是坚强有力的，中国人民是团结伟大的。埃方一直坚信中国能够成功战胜疫情，而且必将更加强大。埃方感谢中方提供的支持和帮助，相信通过共同抗击疫情，埃中两国友好关系将更加深入。埃中是特殊友好的伙伴。我高度重视埃中关系，愿同中方共同努力，推进两国各领域务实互利合作，加强在国际事务中的沟通协调。</t>
+  </si>
+  <si>
+    <t>习近平同法国总统通电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平同英国首相通电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>习近平同埃及总统通电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>习近平同巴西总统通电话</t>
+  </si>
+  <si>
+    <t>国家主席习近平24日晚应约同巴西总统博索纳罗通电话。习近平代表中国政府和中国人民向巴西政府和巴西人民抗击新冠肺炎疫情表示诚挚慰问和坚定支持。习近平指出，近来，疫情在全球多点暴发，扩散很快。当务之急，各国要加强合作。中方始终秉持人类命运共同体理念，本着公开、透明、负责任态度，及时发布疫情信息，毫无保留同世卫组织和国际社会分享防控、治疗经验，并尽力为各方提供援助。我十分关注巴西疫情发展，希望巴方尽早遏制疫情扩散。今天，中国同包括巴西在内的拉美和加勒比国家举行了视频工作会议，就疫情防控开展交流。中方愿向巴方提供力所能及的帮助，为防止疫情在世界范围扩散贡献力量。习近平强调，中国为抗击疫情付出了巨大牺牲，为国际社会赢得了宝贵时间，国际社会对此已有公论。中巴两国互为全面战略伙伴。双方要保持战略定力，支持彼此核心利益和重大关切，共同向国际社会发出团结一致的声音，传递携手应对疫情的积极信号，同时推进各领域务实合作，加强在二十国集团、金砖国家等多边框架内的沟通和协作，共同维护好、发展好中巴全面战略伙伴关系。我相信，中巴两国一定能够携手战胜疫情，并推动中巴全方位合作不断迈上新台阶。博索纳罗表示，当前新冠肺炎疫情在巴西呈现蔓延势头。巴方感谢中方为巴西在华采购必要医疗物资提供便利，希望同中方加强防控经验交流，共同抗击疫情，尽快遏制住国内疫情扩散。我向伟大的中国人民致敬，并重申巴中友谊和巴中全面战略伙伴关系坚不可摧。巴方愿同中方加强双边合作，并加强在二十国集团等多边框架内的沟通协调，为抗击疫情和经济恢复发挥应有作用。</t>
+  </si>
+  <si>
+    <t>国家主席习近平24日晚同哈萨克斯坦总统托卡耶夫通电话。习近平指出，这次新冠肺炎疫情来势汹汹，对各国都是一次大考。在中国疫情防控形势最艰难时刻，哈萨克斯坦政府和各界力挺中国。当前哈萨克斯坦也出现疫情蔓延势头。在总统先生带领下，哈萨克斯坦迅速采取果断举措，体现了对全体人民负责的态度，中方对此高度评价。作为友好邻邦和永久全面战略伙伴，中方对哈萨克斯坦当前处境感同身受，将积极提供支持和帮助。中哈相互支持体现了两国关系的高水平和特殊性，为国际社会合作抗疫树立了典范。习近平强调，病毒没有国界，疫情不分种族。在应对这场全球公共卫生危机的过程中，构建人类命运共同体的迫切性和重要性更加凸显。唯有团结协作、携手应对，国际社会才能战胜疫情，维护人类共同家园。中方愿同包括哈萨克斯坦在内的世界各国一道，加强国际抗疫合作，共同维护全球公共卫生安全。疫情是暂时的，合作是长久的。疫情给中哈合作带来挑战，同样也孕育着新机遇。中哈应该坚定不移深化政治互信，扩大数字经济、医疗卫生等领域合作，打造中哈关系新增长点。相信风雨过后，中哈共建“一带一路”必将取得更多成果。托卡耶夫表示，在主席先生英明领导下，中国人民在疫情防控方面取得杰出成就，为世界各国人民注入了信心和希望。全世界都目睹了中国医疗体系的高超水平和中国医护人员的高度敬业，中国再次展示了应对复杂困难挑战的高效治理能力。哈方对此高度评价并表示祝贺。当前，新冠肺炎疫情在世界范围蔓延，哈萨克斯坦也不能独善其身。哈方希望同中方加强合作，尽快战胜疫情。哈方致力于深化哈中永久全面战略伙伴关系，推进共建“一带一路”，这完全符合两国人民共同利益。哈方愿同中方加强在联合国、上海合作组织框架内的沟通与合作。</t>
+  </si>
+  <si>
+    <t>国家主席习近平24日晚同波兰总统杜达通电话。习近平指出，新冠肺炎疫情发生后，波兰政府和社会各界对中方表示慰问和支持，中国人民铭记在心。患难见真情。中方坚定支持波兰政府和波兰人民抗击疫情的努力。中方还同包括波兰在内的中东欧十七国举行了卫生专家视频会议，及时分享疫情防控信息和有关做法。中方秉持人类命运共同体理念，愿同包括波兰在内的世界各国加强抗疫合作，共同维护全球公共卫生安全。习近平强调，战胜这次疫情，给我们力量和信心的是中国人民。中国14亿人民同舟共济，众志成城，坚定信心，同疫情进行顽强斗争。中国广大医务人员奋不顾身、舍生忘死，这种高尚精神让我深受感动。人民才是真正的英雄。只要紧紧依靠人民，我们就一定能够战胜一切艰难险阻，实现中华民族伟大复兴。习近平强调，波兰是中国在欧盟和中东欧国家的重要合作伙伴，中方愿同波方一道，加强高层交往，增进相互了解和战略互信，推动中波关系不断向前迈进，共同为中国－中东欧国家合作和中欧关系发展作出重要贡献。杜达表示，中方采取及时果断有力措施，有效遏制住疫情蔓延，我对中国人民和抗击疫情的中国医护人员表示敬佩。中方有关经验值得波兰借鉴。波兰正面临疫情严峻挑战，急需医疗防护物资。感谢中方及时提供宝贵支援，这是波中深厚友谊的体现。中国经济基础雄厚，我对中国战胜疫情、实现更好发展充满信心。波方希望同中方加强各领域合作，共同致力于促进中东欧国家和中国之间的合作。我珍视同习近平主席的友谊，期待着疫情过后早日访华。</t>
+  </si>
+  <si>
+    <t>巴西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>习近平同哈萨克斯坦总统通电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈萨克斯</t>
+  </si>
+  <si>
+    <t>习近平同波兰总统通电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波兰</t>
+  </si>
+  <si>
+    <t>习近平同德国总理通电话</t>
+  </si>
+  <si>
+    <t>国家主席习近平25日晚同德国总理默克尔通电话。习近平强调，在中国发生新冠肺炎疫情初期，你向中方表达了慰问和支持，德国政府和各界纷纷伸出援手，中国人民铭记在心。目前德国面临疫情严峻挑战，中国人民感同身受。中方坚定支持德方抗击疫情，愿继续提供力所能及的帮助。两国专家已进行了视频交流，德国专家也随世卫组织专家组来华考察。中方愿同德方分享防控和治疗经验，加强在疫苗和药物研发方面合作，为两国人民健康福祉以及全球公共卫生安全作出贡献。祝愿你领导德国人民早日克服疫情！习近平指出，病毒不分国界，是全人类面临的共同挑战。任何国家都不能置身其外，独善其身。在这次抗击疫情的过程中，中德、中欧展现出团结合作的力量，发挥了正能量。二十国集团领导人应对新冠肺炎特别峰会即将召开。中方愿同包括德国在内的各方加强协调合作，发出同舟共济、团结抗疫的声音，提振国际社会信心。要兼顾当下和长远，统筹国内效应和全球影响，加强宏观经济政策协调，稳市场、保增长，稳就业、保民生，同时推动市场开放，确保全球供应链开放、稳定、安全。习近平强调，中德双方要继续做好重要政治议程筹划，持续推进各领域交流合作，确保中德、中欧产业链、供应链稳定，挖掘新兴产业合作潜力，减少疫情冲击。默克尔表示，当前欧洲疫情形势严峻，德方正在采取果断防控措施。德方感谢中方提供的及时和宝贵帮助，希望同中方开展疫苗、药物研发等领域科研合作，树立团结抗疫的榜样。德方主张基于事实，秉持客观公正立场，通过国际合作共同应对疫情。二十国集团成员应该加强协调合作，相互支持，为克服当前危机、稳定全球经济发挥引领作用。德方期待疫情过后同中方继续推进德中、欧中重要交往合作。</t>
+  </si>
+  <si>
+    <t>习近平同美国总统通电话</t>
+  </si>
+  <si>
+    <t>国家主席习近平27日应约同美国总统特朗普通电话。习近平强调，新冠肺炎疫情发生以来，中方始终本着公开、透明、负责任态度，及时向世卫组织以及包括美国在内的有关国家通报疫情信息，包括第一时间发布病毒基因序列等信息，毫无保留地同各方分享防控和治疗经验，并尽己所能为有需要的国家提供支持和援助。我们将继续这样做，同国际社会一道战胜这场疫情。习近平指出，流行性疾病不分国界和种族，是人类共同的敌人。国际社会只有共同应对，才能战而胜之。在各方共同努力下，昨天举行的二十国集团领导人应对新冠肺炎特别峰会达成不少共识，取得积极成果。希望各方加强协调和合作，把特别峰会成果落到实处，为加强抗疫国际合作、稳定全球经济注入强劲动力。中方愿同包括美方在内的各方一道，继续支持世卫组织发挥重要作用，加强防控信息和经验交流共享，加快科研攻关合作，推动完善全球卫生治理；加强宏观经济政策协调，稳市场、保增长、保民生，确保全球供应链开放、稳定、安全。习近平应询详细介绍了中方为打好疫情防控阻击战采取的举措。习近平强调，我十分关注和担心美国疫情发展，也注意到总统先生正在采取一系列政策举措。中国人民真诚希望美国早日控制住疫情蔓延势头，减少疫情给美国人民带来的损失。中方对开展国际防控合作一向持积极态度。当前情况下，中美应该团结抗疫。中美两国卫生部门和防控专家就国际疫情形势、中美防控合作一直保持着沟通，中方愿继续毫无保留同美方分享信息和经验。中国一些省市和企业纷纷在向美方提供医疗物资援助。中方理解美方当前的困难处境，愿提供力所能及的支持。习近平强调，目前在美国仍有大量中国公民包括留学生。中国政府高度重视他们的生命安全和身体健康。希望美方采取切实有效措施，维护好他们的生命安全和身体健康。习近平强调，当前，中美关系正处在一个重要关口。中美合则两利、斗则俱伤，合作是唯一正确的选择。希望美方在改善中美关系方面采取实质性行动，双方共同努力，加强抗疫等领域合作，发展不冲突不对抗、相互尊重、合作共赢的关系。特朗普表示，我认真聆听了主席先生昨天晚上在二十国集团特别峰会上的讲话，我和各国领导人都赞赏你提出的看法和倡议。特朗普向习近平详细询问了中方有关疫情防控举措，表示美中两国都正面临新冠肺炎疫情挑战，我高兴看到中方在抗击疫情方面取得了积极进展。中方的经验对我很有启发。我将亲自过问，确保美中两国排除干扰，集中精力开展抗疫合作。感谢中方为美方抗疫提供医疗物资供应，并加强两国医疗卫生领域交流，包括抗疫有效药物研发方面的合作。我在社交媒体上已公开表示，美国人民非常尊敬和喜爱中国人民，中国留学生对美国教育事业非常重要，美方将保护好在美中国公民包括中国留学生。两国元首同意就共同关心的问题保持沟通。</t>
+  </si>
+  <si>
+    <t>习近平同沙特国王通电话</t>
+  </si>
+  <si>
+    <t>国家主席习近平27日晚同沙特国王萨勒曼通电话。习近平强调，在国王陛下主持下，昨天我们成功举行了二十国集团领导人应对新冠肺炎特别峰会，各方就团结抗击疫情、稳定世界经济达成重要共识，向国际社会发出积极信号。中方赞赏沙方作为今年二十国集团主席国为此所做大量工作。病毒没有国界，只有国际社会合作应对，才能战而胜之。二十国集团成员应该秉持人类命运共同体理念，加强团结、协调、合作，坚决遏制疫情蔓延，全力稳定世界经济。中方愿同沙方保持密切沟通，保持和加强二十国集团合作势头。习近平指出，中国发生新冠肺炎疫情后，你第一时间向我表达慰问和支持，沙特政府和各界纷纷伸出援手，向中方提供了多批物资援助，中方铭记在心。中华民族是懂得感恩、投桃报李的民族。当前，沙特也面临疫情严峻挑战。中方坚定支持沙方抗击疫情，愿提供力所能及的帮助，同沙方分享防控经验，为沙方采购医疗物资提供协助和便利，维护好两国人民生命安全和身体健康，共同维护全球和地区公共卫生安全。中方愿同沙方携手努力，不断增进政治互信，深化各领域务实合作，推动中沙全面战略伙伴关系再上新台阶。萨勒曼表示，中国政府采取果断有力举措，成功控制新冠肺炎疫情，我表示高度赞赏并衷心祝贺。中国的成功向全世界发出了积极信号。我对中国政府和中国人民抱有坚定信心。我相信，中国将很快战胜疫情并且变得更加强大。沙中是患难之交，两国关系高水平发展。感谢中方为沙特抗击疫情提供检测和医疗物资援助，对此沙特人民不会忘记，将始终坚定同中方站在一起。沙方希望借鉴中方成功经验，加强卫生医疗等领域交流合作。相信经过共同抗击疫情，沙中友好关系将更加深厚牢固。感谢主席先生支持沙方主办二十国集团领导人特别峰会。沙方希望同中方继续加强在二十国集团框架内协调合作，共同帮助世界尽快克服眼前这场危机。</t>
+  </si>
+  <si>
+    <t>李克强同克罗地亚总理和奥地利总理通电话</t>
+  </si>
+  <si>
+    <t>国务院总理李克强27日晚应约同克罗地亚总理普连科维奇和奥地利总理库尔茨通电话。在同普连科维奇通话时，李克强对克罗地亚发生新冠肺炎疫情表示慰问。他指出，经过全国上下和广大人民群众艰苦努力，中国疫情防控取得阶段性重要成效。当前疫情已成为全球性挑战，任何国家都无法独善其身，国际社会应当加强合作、共同应对。中方愿为克方抗击疫情提供力所能及的支持，为克方从中国采购医疗物资提供便利。希望克方为参与克重大项目建设的中方工程技术人员，以及在克工作生活的中国公民的安全和生活便利提供有力保障。李克强表示，中方积极支持克罗地亚作为欧盟轮值主席国倡议召开欧盟-中国卫生部长视频会议，愿同欧盟国家积极开展国际合作，交流分享防控和治疗经验。普连科维奇对中国抗击肺炎疫情作出的艰苦努力表示赞赏。他说，当前疫情在克蔓延，希望在防疫物资和设备采购方面得到中方支持。克罗地亚作为欧盟轮值主席国，致力于推进欧中合作，将尽快召开欧中卫生部长视频会议，携手共同抗击疫情。在同库尔茨通话时，李克强表示，当中国人民处在抗击疫情的艰难时期，奥地利政府和人民给予了宝贵支持和帮助。目前疫情在奥快速蔓延，中方坚定支持奥方抗击疫情的努力，愿提供力所能及的帮助，继续为奥方在华采购和运输医疗物资提供便利。希望奥方切实保障在奥中国公民包括留学生的安全和生活便利。库尔茨表示，奥方对中国抗击疫情取得的成效印象深刻。奥中是好朋友。当前奥方疫情防控面临严峻挑战，仍需采购必要的医疗物资和设备，希中方继续提供帮助。王毅、何立峰参加上述活动。</t>
+  </si>
+  <si>
+    <t>李克强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克罗地亚、奥地利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1306,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C101" sqref="C101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2934,6 +3042,196 @@
         <v>277</v>
       </c>
     </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>20200322</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E96" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E98" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>20200324</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E99" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>20200325</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F100" s="1"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>20200325</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E101" t="s">
+        <v>294</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>20200325</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E102" t="s">
+        <v>296</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>20200326</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>20200327</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>20200328</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:E81">
     <sortCondition ref="A71"/>
